--- a/datos/vuelos_charter.xlsx
+++ b/datos/vuelos_charter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smotz\OneDrive\Escritorio\UNIVERSIDAX\SEMESTRE 11\TALLER INT\OPTI\DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\matimurata\proyecto-mpm\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC3DD01-70C7-4D49-8EAF-C5B65B5315F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6616041B-C632-4024-8C64-BE4987A6F330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
-    <t>id_plane</t>
-  </si>
-  <si>
     <t>capacidad</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>CJCSCL1</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -511,40 +511,40 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="20.06640625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.1328125" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>220</v>
@@ -553,21 +553,21 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>220</v>
@@ -576,21 +576,21 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>197</v>
@@ -599,21 +599,21 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>197</v>
@@ -622,21 +622,21 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>197</v>
@@ -645,21 +645,21 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>30</v>
       </c>
       <c r="B7">
         <v>220</v>
@@ -668,21 +668,21 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>220</v>
@@ -691,21 +691,21 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>220</v>
@@ -714,21 +714,21 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>220</v>
@@ -737,21 +737,21 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>197</v>
@@ -760,16 +760,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/datos/vuelos_charter.xlsx
+++ b/datos/vuelos_charter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\matimurata\proyecto-mpm\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6616041B-C632-4024-8C64-BE4987A6F330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897EFC11-87DC-46A4-AB8A-70CE7169AB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,15 +100,6 @@
     <t>04:05</t>
   </si>
   <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>ANTOFAGASTA</t>
-  </si>
-  <si>
-    <t>CALAMA</t>
-  </si>
-  <si>
     <t>SCLANF1</t>
   </si>
   <si>
@@ -140,6 +131,15 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>Calama</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -521,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -544,7 +546,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>220</v>
@@ -559,15 +561,15 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>220</v>
@@ -582,15 +584,15 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>197</v>
@@ -605,15 +607,15 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>197</v>
@@ -628,15 +630,15 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>197</v>
@@ -651,15 +653,15 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>220</v>
@@ -674,15 +676,15 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>220</v>
@@ -697,15 +699,15 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>220</v>
@@ -720,15 +722,15 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>220</v>
@@ -743,15 +745,15 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>197</v>
@@ -766,10 +768,10 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
